--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Grand Total Carried to Page V5:</t>
+  </si>
+  <si>
+    <t>JKR Sarawak, Miri Division</t>
+  </si>
+  <si>
+    <t>Endaya Construction Sdn Bhd</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1269,16 +1275,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,9 +1329,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1363,6 +1357,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2205,779 +2217,780 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.7265625" style="2" customWidth="1"/>
+    <col min="2" max="10" width="5.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="2" customWidth="1"/>
     <col min="13" max="13" width="5" style="2" customWidth="1"/>
-    <col min="14" max="17" width="5.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" style="2" customWidth="1"/>
-    <col min="19" max="20" width="4.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="2"/>
+    <col min="14" max="17" width="5.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="98" t="s">
+    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
-    </row>
-    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="121" t="s">
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="71"/>
+    </row>
+    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="124" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="73"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="30"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="74"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-    </row>
-    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="79"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="81"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83" t="s">
+      <c r="K8" s="84"/>
+      <c r="L8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84" t="s">
+      <c r="M8" s="86"/>
+      <c r="N8" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86" t="s">
+      <c r="O8" s="86"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-    </row>
-    <row r="9" spans="2:26" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="88" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="83"/>
+      <c r="C9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88" t="s">
+      <c r="D9" s="90"/>
+      <c r="E9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="47" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="87"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-    </row>
-    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108" t="s">
+      <c r="Q9" s="89"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-    </row>
-    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24">
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="37"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
         <f>L11*M11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-    </row>
-    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="115" t="s">
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="17"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-    </row>
-    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24">
+      <c r="N13" s="51"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
         <f>L13*M13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-    </row>
-    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="106"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24">
+      <c r="N15" s="51"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
         <f>L15*M15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="100" t="s">
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="17"/>
     </row>
-    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24">
+      <c r="N17" s="51"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21">
         <f>L17*M17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100" t="s">
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="106"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24">
+      <c r="N19" s="51"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21">
         <f>L19*M19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="100" t="s">
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24">
+      <c r="N21" s="51"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21">
         <f>L21*M21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="22"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="106"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="24">
+      <c r="N23" s="51"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21">
         <f>L23*M23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="100" t="s">
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24">
+      <c r="N25" s="51"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21">
         <f>L25*M25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="100" t="s">
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="22"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="106"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24">
+      <c r="N27" s="51"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21">
         <f>L27*M27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="100" t="s">
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="22"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24">
+      <c r="N29" s="51"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
         <f>L29*M29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="100" t="s">
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="108" t="s">
+    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-    </row>
-    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="110" t="s">
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
+    </row>
+    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="50">
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="46">
         <f>SUM(L11:L30)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="46">
         <f>SUM(M11:M30)</f>
         <v>0</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="50">
+      <c r="P32" s="46">
+        <f>SUM(P11:P30)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="50">
+      <c r="Q32" s="46">
         <f>SUM(Q11:Q30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2995,128 +3008,134 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="112" t="s">
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75" t="s">
+      <c r="K34" s="77"/>
+      <c r="L34" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75" t="s">
+      <c r="M34" s="77"/>
+      <c r="N34" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75" t="s">
+      <c r="O34" s="77"/>
+      <c r="P34" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="76"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="64" t="s">
+      <c r="Q34" s="78"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="66" t="s">
+      <c r="C35" s="67"/>
+      <c r="D35" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="52"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="64" t="s">
+      <c r="I35" s="69"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="66" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="I36" s="69"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="54"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58" t="s">
+      <c r="C37" s="56"/>
+      <c r="D37" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="52"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="54"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="76">
     <mergeCell ref="E2:M2"/>
@@ -3206,6 +3225,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3402,22 +3436,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3434,29 +3478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Form V3" sheetId="3" r:id="rId1"/>
+    <sheet name="Form V3 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Assessment">'[1]Form FS'!#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -1219,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1377,6 +1378,15 @@
     <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,6 +1399,33 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1398,30 +1435,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1440,15 +1453,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,9 +1567,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1622,6 +1623,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1808,6 +1815,184 @@
         <a:xfrm>
           <a:off x="458704" y="610101"/>
           <a:ext cx="337189" cy="330978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218176</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>56652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="268976" y="56652"/>
+          <a:ext cx="764149" cy="539332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175962</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>217328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="226762" y="873292"/>
+          <a:ext cx="841466" cy="125438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="300">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ENDAYA CONSTRUCTION SDN BHD </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="200">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(049693-V)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>391026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367268</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480929" y="606926"/>
+          <a:ext cx="337189" cy="296053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2238,32 +2423,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="91"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="100" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="71"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="123" t="s">
         <v>2</v>
       </c>
@@ -2289,9 +2474,9 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="126" t="s">
         <v>21</v>
       </c>
@@ -2306,10 +2491,10 @@
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="73"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2319,9 +2504,9 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
@@ -2340,10 +2525,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="136"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2374,24 +2559,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="82"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2401,32 +2586,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85" t="s">
+      <c r="K8" s="85"/>
+      <c r="L8" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86" t="s">
+      <c r="M8" s="87"/>
+      <c r="N8" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88" t="s">
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2438,18 +2623,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="83"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90" t="s">
+      <c r="D9" s="91"/>
+      <c r="E9" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2471,7 +2656,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="89"/>
+      <c r="Q9" s="90"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2481,7 +2666,7 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="111" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="130"/>
@@ -2591,20 +2776,20 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="22"/>
@@ -2612,13 +2797,13 @@
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="107"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2632,20 +2817,20 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
       <c r="P16" s="22"/>
@@ -2653,13 +2838,13 @@
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2673,20 +2858,20 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="22"/>
@@ -2694,13 +2879,13 @@
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="107"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2714,20 +2899,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="22"/>
@@ -2735,13 +2920,13 @@
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2755,20 +2940,20 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
       <c r="P22" s="22"/>
@@ -2776,13 +2961,13 @@
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2796,20 +2981,20 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="22"/>
@@ -2817,13 +3002,13 @@
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="19"/>
@@ -2837,20 +3022,20 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
       <c r="P26" s="22"/>
@@ -2858,13 +3043,13 @@
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -2878,20 +3063,20 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
       <c r="P28" s="22"/>
@@ -2899,13 +3084,13 @@
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="107"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
@@ -2919,38 +3104,38 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="110"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -2959,20 +3144,20 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
       <c r="L32" s="46">
-        <f>SUM(L11:L30)</f>
+        <f ca="1">SUM('Form V3'!L32,'Form V3'!L31)</f>
         <v>0</v>
       </c>
       <c r="M32" s="46">
@@ -3009,104 +3194,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77" t="s">
+      <c r="K34" s="78"/>
+      <c r="L34" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77" t="s">
+      <c r="M34" s="78"/>
+      <c r="N34" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77" t="s">
+      <c r="O34" s="78"/>
+      <c r="P34" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="78"/>
+      <c r="Q34" s="79"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="57" t="s">
+      <c r="C35" s="68"/>
+      <c r="D35" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="68" t="s">
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="116"/>
       <c r="M35" s="116"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="54"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="57"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="57" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="68" t="s">
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="54"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="57"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="115" t="s">
+      <c r="C37" s="59"/>
+      <c r="D37" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="60" t="s">
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="61"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="54"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3224,13 +3409,1026 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="0.7265625" style="55" customWidth="1"/>
+    <col min="2" max="10" width="5.7265625" style="55" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="55" customWidth="1"/>
+    <col min="13" max="13" width="5" style="55" customWidth="1"/>
+    <col min="14" max="17" width="5.7265625" style="55" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="55" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="55" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" style="55" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" style="55" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="55" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
+    </row>
+    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="136"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="82"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="84"/>
+      <c r="C9" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="90"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="37"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
+        <f>L11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>L13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
+        <f>L15*M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21">
+        <f>L17*M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21">
+        <f>L19*M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21">
+        <f>L21*M21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21">
+        <f>L23*M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21">
+        <f>L25*M25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21">
+        <f>L27*M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
+        <f>L29*M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="46">
+        <f>SUM(L10:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f>SUM(M10:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="46">
+        <f>SUM(P10:P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <f>SUM(Q10:Q29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="46">
+        <f ca="1">SUM(L31,'Form V3'!L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f>SUM(M31,'Form V3'!M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="46">
+        <f>SUM(P31,'Form V3'!P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <f>SUM(Q31,'Form V3'!Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="79"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="73"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="57"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="73"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="57"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="57"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="O4:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3239,7 +4437,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3436,24 +4634,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3461,7 +4648,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3478,4 +4665,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Form V3" sheetId="3" r:id="rId1"/>
-    <sheet name="Form V3 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Assessment">'[1]Form FS'!#REF!</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -1220,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1378,20 +1377,227 @@
     <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1408,227 +1614,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,7 +1658,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1708,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1787,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,184 +1805,6 @@
         <a:xfrm>
           <a:off x="458704" y="610101"/>
           <a:ext cx="337189" cy="330978"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>218176</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>182225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43534</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="268976" y="56652"/>
-          <a:ext cx="764149" cy="539332"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175962</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>54142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>217328</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198630</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="226762" y="873292"/>
-          <a:ext cx="841466" cy="125438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="300">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ENDAYA CONSTRUCTION SDN BHD </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="200">
-              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(049693-V)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30079</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>391026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>367268</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109229</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="480929" y="606926"/>
-          <a:ext cx="337189" cy="296053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,43 +2235,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="92"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="101" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="98"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="123" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="3"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
@@ -2474,27 +2286,27 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="126" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="128"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2504,17 +2316,17 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2525,10 +2337,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="136"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="102"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2559,24 +2371,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="82"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2586,32 +2398,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87" t="s">
+      <c r="M8" s="111"/>
+      <c r="N8" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="89" t="s">
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2623,18 +2435,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="84"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2468,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="90"/>
+      <c r="Q9" s="114"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2666,18 +2478,18 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="28"/>
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
@@ -2694,13 +2506,13 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="37"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="133"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -2721,20 +2533,20 @@
       <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="119"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="48"/>
       <c r="O12" s="49"/>
       <c r="P12" s="22"/>
@@ -2749,13 +2561,13 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -2776,20 +2588,20 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="22"/>
@@ -2797,13 +2609,13 @@
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="107"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2817,20 +2629,20 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
       <c r="P16" s="22"/>
@@ -2838,13 +2650,13 @@
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="107"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2858,20 +2670,20 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="22"/>
@@ -2879,13 +2691,13 @@
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="107"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2899,20 +2711,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="22"/>
@@ -2920,13 +2732,13 @@
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="107"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2940,20 +2752,20 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
       <c r="P22" s="22"/>
@@ -2961,13 +2773,13 @@
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="107"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2981,20 +2793,20 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="22"/>
@@ -3002,13 +2814,13 @@
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="107"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="19"/>
@@ -3022,20 +2834,20 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
       <c r="P26" s="22"/>
@@ -3043,13 +2855,13 @@
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="107"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -3063,20 +2875,20 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
       <c r="P28" s="22"/>
@@ -3084,13 +2896,13 @@
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="107"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
@@ -3104,38 +2916,38 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="110"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -3144,18 +2956,18 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="46">
         <f ca="1">SUM('Form V3'!L32,'Form V3'!L31)</f>
         <v>0</v>
@@ -3194,1127 +3006,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78" t="s">
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78" t="s">
+      <c r="K34" s="87"/>
+      <c r="L34" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78" t="s">
+      <c r="M34" s="87"/>
+      <c r="N34" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78" t="s">
+      <c r="O34" s="87"/>
+      <c r="P34" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="79"/>
+      <c r="Q34" s="103"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69" t="s">
+      <c r="C35" s="89"/>
+      <c r="D35" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72" t="s">
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="57"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="80"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72" t="s">
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="73"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="57"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="80"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60" t="s">
+      <c r="C37" s="128"/>
+      <c r="D37" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61" t="s">
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="57"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="36" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="0.7265625" style="55" customWidth="1"/>
-    <col min="2" max="10" width="5.7265625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" style="55" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="5" style="55" customWidth="1"/>
-    <col min="14" max="17" width="5.7265625" style="55" customWidth="1"/>
-    <col min="18" max="18" width="0.7265625" style="55" customWidth="1"/>
-    <col min="19" max="20" width="4.7265625" style="55" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" style="55" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" style="55" customWidth="1"/>
-    <col min="23" max="23" width="4.7265625" style="55" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="92"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="136"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="82"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-    </row>
-    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="84"/>
-      <c r="C9" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="90"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="37"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21">
-        <f>L11*M11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21">
-        <f>L13*M13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21">
-        <f>L15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21">
-        <f>L17*M17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21">
-        <f>L19*M19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21">
-        <f>L21*M21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21">
-        <f>L23*M23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21">
-        <f>L25*M25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21">
-        <f>L27*M27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21">
-        <f>L29*M29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="46">
-        <f>SUM(L10:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="46">
-        <f>SUM(M10:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="46">
-        <f>SUM(P10:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46">
-        <f>SUM(Q10:Q29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="46">
-        <f ca="1">SUM(L31,'Form V3'!L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46">
-        <f>SUM(M31,'Form V3'!M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="46">
-        <f>SUM(P31,'Form V3'!P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46">
-        <f>SUM(Q31,'Form V3'!Q32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="79"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="57"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="73"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="57"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="57"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="80"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4360,51 +3149,11 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:I8"/>
@@ -4416,25 +3165,66 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E3:M3"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="36" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4635,15 +3425,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4668,18 +3470,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Form V3" sheetId="3" r:id="rId1"/>
+    <sheet name="Form V3 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Assessment">'[1]Form FS'!#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -1219,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1375,6 +1376,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1805,6 +1815,184 @@
         <a:xfrm>
           <a:off x="458704" y="610101"/>
           <a:ext cx="337189" cy="330978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218176</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>56652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="268976" y="56652"/>
+          <a:ext cx="764149" cy="539332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175962</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>217328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="226762" y="873292"/>
+          <a:ext cx="841466" cy="125438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="300">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ENDAYA CONSTRUCTION SDN BHD </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="200">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(049693-V)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>391026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367268</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480929" y="606926"/>
+          <a:ext cx="337189" cy="296053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2214,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2235,43 +2423,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="116"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="125" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="53" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="3"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
@@ -2286,27 +2474,27 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2316,17 +2504,17 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2337,10 +2525,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="102"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2371,24 +2559,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2398,32 +2586,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111" t="s">
+      <c r="M8" s="114"/>
+      <c r="N8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113" t="s">
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2435,18 +2623,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="108"/>
-      <c r="C9" s="115" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2468,7 +2656,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="114"/>
+      <c r="Q9" s="117"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2478,18 +2666,18 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="28"/>
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
@@ -2506,13 +2694,13 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="37"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -2533,20 +2721,20 @@
       <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="48"/>
       <c r="O12" s="49"/>
       <c r="P12" s="22"/>
@@ -2561,13 +2749,13 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="70"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -2588,20 +2776,20 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="22"/>
@@ -2609,13 +2797,13 @@
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="76"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -2629,20 +2817,20 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
       <c r="P16" s="22"/>
@@ -2650,13 +2838,13 @@
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="76"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -2670,20 +2858,20 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="22"/>
@@ -2691,13 +2879,13 @@
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="76"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -2711,20 +2899,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="22"/>
@@ -2732,13 +2920,13 @@
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="76"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2752,20 +2940,20 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
       <c r="P22" s="22"/>
@@ -2773,13 +2961,13 @@
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="76"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -2793,20 +2981,20 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="22"/>
@@ -2814,13 +3002,13 @@
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="76"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="19"/>
@@ -2834,20 +3022,20 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="74"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
       <c r="P26" s="22"/>
@@ -2855,13 +3043,13 @@
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="76"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -2875,20 +3063,20 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
       <c r="P28" s="22"/>
@@ -2896,13 +3084,13 @@
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="76"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
@@ -2916,38 +3104,38 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="82"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -2956,20 +3144,20 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
       <c r="L32" s="46">
-        <f ca="1">SUM('Form V3'!L32,'Form V3'!L31)</f>
+        <f>SUM(L11:L30)</f>
         <v>0</v>
       </c>
       <c r="M32" s="46">
@@ -3006,104 +3194,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87" t="s">
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87" t="s">
+      <c r="O34" s="90"/>
+      <c r="P34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="103"/>
+      <c r="Q34" s="106"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="93" t="s">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="80"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="83"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="93" t="s">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="80"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129" t="s">
+      <c r="C37" s="131"/>
+      <c r="D37" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="130" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="131"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="80"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3218,6 +3406,1025 @@
     <brk id="18" max="36" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="0.7265625" style="55" customWidth="1"/>
+    <col min="2" max="10" width="5.7265625" style="55" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="55" customWidth="1"/>
+    <col min="13" max="13" width="5" style="55" customWidth="1"/>
+    <col min="14" max="17" width="5.7265625" style="55" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="55" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="55" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" style="55" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" style="55" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="55" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
+    </row>
+    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="111"/>
+      <c r="C9" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="117"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="37"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
+        <f>L11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>L13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
+        <f>L15*M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21">
+        <f>L17*M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21">
+        <f>L19*M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21">
+        <f>L21*M21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21">
+        <f>L23*M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21">
+        <f>L25*M25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21">
+        <f>L27*M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
+        <f>L29*M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="46">
+        <f>SUM(L10:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f>SUM(M10:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="46">
+        <f>SUM(P10:P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <f>SUM(Q10:Q29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="46">
+        <f>SUM(L31,'Form V3'!L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f>SUM(M31,'Form V3'!M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="46">
+        <f>SUM(P31,'Form V3'!P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <f>SUM(Q31,'Form V3'!Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="106"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="83"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="134"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form V3" sheetId="3" r:id="rId1"/>
@@ -1360,24 +1360,6 @@
     <xf numFmtId="1" fontId="24" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1387,6 +1369,213 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,9 +1597,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1426,209 +1612,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,7 +1668,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1718,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1797,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1896,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1975,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2423,43 +2423,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="128" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="56" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="3"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
@@ -2474,27 +2474,27 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="59" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="124"/>
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2504,17 +2504,17 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2525,10 +2525,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="105"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2559,24 +2559,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2586,32 +2586,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113" t="s">
+      <c r="K8" s="81"/>
+      <c r="L8" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114" t="s">
+      <c r="M8" s="83"/>
+      <c r="N8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2623,18 +2623,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="111"/>
-      <c r="C9" s="118" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="117"/>
+      <c r="Q9" s="86"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2666,18 +2666,18 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="28"/>
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
@@ -2694,19 +2694,19 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="37"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="129"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="47"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21">
         <f>L11*M11</f>
@@ -2721,22 +2721,22 @@
       <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="134"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="17"/>
       <c r="T12" s="26"/>
@@ -2749,19 +2749,19 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="73"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="47"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21">
         <f>L13*M13</f>
@@ -2776,40 +2776,40 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="47"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="132"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="21">
         <f>L15*M15</f>
@@ -2817,40 +2817,40 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="79"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="47"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="132"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="21">
         <f>L17*M17</f>
@@ -2858,40 +2858,40 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="103"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="47"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="132"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="21">
         <f>L19*M19</f>
@@ -2899,40 +2899,40 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="79"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="103"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="47"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="132"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="21">
         <f>L21*M21</f>
@@ -2940,40 +2940,40 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="79"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="47"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21">
         <f>L23*M23</f>
@@ -2981,40 +2981,40 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="79"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="103"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="19"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="47"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="132"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="21">
         <f>L25*M25</f>
@@ -3022,40 +3022,40 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="79"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="103"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="47"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="132"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="21">
         <f>L27*M27</f>
@@ -3063,40 +3063,40 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="79"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="103"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="47"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="132"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="21">
         <f>L29*M29</f>
@@ -3104,38 +3104,38 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -3144,18 +3144,18 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
       <c r="L32" s="46">
         <f>SUM(L11:L30)</f>
         <v>0</v>
@@ -3194,104 +3194,1127 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90" t="s">
+      <c r="K34" s="74"/>
+      <c r="L34" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90" t="s">
+      <c r="M34" s="74"/>
+      <c r="N34" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90" t="s">
+      <c r="O34" s="74"/>
+      <c r="P34" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="106"/>
+      <c r="Q34" s="75"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93" t="s">
+      <c r="C35" s="62"/>
+      <c r="D35" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="96" t="s">
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="83"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="96" t="s">
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="83"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="133" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="134"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="83"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="36" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="0.7265625" style="49" customWidth="1"/>
+    <col min="2" max="10" width="5.7265625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="5" style="49" customWidth="1"/>
+    <col min="14" max="17" width="5.7265625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="49" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" style="49" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="49" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69"/>
+    </row>
+    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="80"/>
+      <c r="C9" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="86"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="37"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
+        <f>L11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>L13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
+        <f>L15*M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21">
+        <f>L17*M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21">
+        <f>L19*M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21">
+        <f>L21*M21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21">
+        <f>L23*M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21">
+        <f>L25*M25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21">
+        <f>L27*M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
+        <f>L29*M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="46">
+        <f>SUM(L10:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f>SUM(M10:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="46">
+        <f>SUM(P10:P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <f>SUM(Q10:Q29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="46">
+        <f>SUM(L31,'Form V3'!L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f>SUM(M31,'Form V3'!M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="46">
+        <f>SUM(P31,'Form V3'!P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <f>SUM(Q31,'Form V3'!Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="75"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="67"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="51"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="67"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="51"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3337,11 +4360,51 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:I8"/>
@@ -3353,1075 +4416,12 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="36" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="0.7265625" style="55" customWidth="1"/>
-    <col min="2" max="10" width="5.7265625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" style="55" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="55" customWidth="1"/>
-    <col min="13" max="13" width="5" style="55" customWidth="1"/>
-    <col min="14" max="17" width="5.7265625" style="55" customWidth="1"/>
-    <col min="18" max="18" width="0.7265625" style="55" customWidth="1"/>
-    <col min="19" max="20" width="4.7265625" style="55" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" style="55" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" style="55" customWidth="1"/>
-    <col min="23" max="23" width="4.7265625" style="55" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="101"/>
-    </row>
-    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="105"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-    </row>
-    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="111"/>
-      <c r="C9" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="117"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="37"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21">
-        <f>L11*M11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21">
-        <f>L13*M13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21">
-        <f>L15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21">
-        <f>L17*M17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21">
-        <f>L19*M19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21">
-        <f>L21*M21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21">
-        <f>L23*M23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21">
-        <f>L25*M25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21">
-        <f>L27*M27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21">
-        <f>L29*M29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="46">
-        <f>SUM(L10:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="46">
-        <f>SUM(M10:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="46">
-        <f>SUM(P10:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46">
-        <f>SUM(Q10:Q29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="46">
-        <f>SUM(L31,'Form V3'!L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46">
-        <f>SUM(M31,'Form V3'!M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="46">
-        <f>SUM(P31,'Form V3'!P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46">
-        <f>SUM(Q31,'Form V3'!Q32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="106"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="83"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="83"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="131"/>
-      <c r="D37" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="134"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="83"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4429,9 +4429,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4632,27 +4635,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4677,9 +4668,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Form V3" sheetId="3" r:id="rId1"/>
@@ -1369,11 +1369,242 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1390,245 +1621,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,7 +1668,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1718,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1797,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1896,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1975,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:O30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2423,43 +2423,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="97" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="100"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="3"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
@@ -2474,27 +2474,27 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2504,17 +2504,17 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2525,10 +2525,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="104"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2559,24 +2559,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2586,32 +2586,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82" t="s">
+      <c r="K8" s="111"/>
+      <c r="L8" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83" t="s">
+      <c r="M8" s="113"/>
+      <c r="N8" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85" t="s">
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2623,18 +2623,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="80"/>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="86"/>
+      <c r="Q9" s="116"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2666,18 +2666,18 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="28"/>
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
@@ -2694,19 +2694,19 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="37"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="129"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21">
         <f>L11*M11</f>
@@ -2721,22 +2721,22 @@
       <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="17"/>
       <c r="T12" s="26"/>
@@ -2749,19 +2749,19 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="117"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="132"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21">
         <f>L13*M13</f>
@@ -2776,40 +2776,40 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="103"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="132"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="21">
         <f>L15*M15</f>
@@ -2817,40 +2817,40 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="103"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="132"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="21">
         <f>L17*M17</f>
@@ -2858,40 +2858,40 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="103"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="132"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="21">
         <f>L19*M19</f>
@@ -2899,40 +2899,40 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="103"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="132"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="21">
         <f>L21*M21</f>
@@ -2940,40 +2940,40 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="103"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="132"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21">
         <f>L23*M23</f>
@@ -2981,40 +2981,40 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="103"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="19"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="132"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="21">
         <f>L25*M25</f>
@@ -3022,40 +3022,40 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="103"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="132"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="21">
         <f>L27*M27</f>
@@ -3063,40 +3063,40 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="103"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="132"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="51"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="21">
         <f>L29*M29</f>
@@ -3104,38 +3104,38 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -3144,18 +3144,18 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
       <c r="L32" s="46">
         <f>SUM(L11:L30)</f>
         <v>0</v>
@@ -3194,1127 +3194,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74" t="s">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74" t="s">
+      <c r="K34" s="89"/>
+      <c r="L34" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74" t="s">
+      <c r="M34" s="89"/>
+      <c r="N34" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74" t="s">
+      <c r="O34" s="89"/>
+      <c r="P34" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="75"/>
+      <c r="Q34" s="105"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
+      <c r="C35" s="91"/>
+      <c r="D35" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66" t="s">
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="51"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="136"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66" t="s">
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="51"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="136"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="130"/>
+      <c r="D37" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55" t="s">
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="36" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:O30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="0.7265625" style="49" customWidth="1"/>
-    <col min="2" max="10" width="5.7265625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="5" style="49" customWidth="1"/>
-    <col min="14" max="17" width="5.7265625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="0.7265625" style="49" customWidth="1"/>
-    <col min="19" max="20" width="4.7265625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="4.7265625" style="49" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
-    </row>
-    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-    </row>
-    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="80"/>
-      <c r="C9" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="86"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="37"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21">
-        <f>L11*M11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21">
-        <f>L13*M13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21">
-        <f>L15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21">
-        <f>L17*M17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21">
-        <f>L19*M19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21">
-        <f>L21*M21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21">
-        <f>L23*M23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21">
-        <f>L25*M25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21">
-        <f>L27*M27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21">
-        <f>L29*M29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="46">
-        <f>SUM(L10:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="46">
-        <f>SUM(M10:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="46">
-        <f>SUM(P10:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46">
-        <f>SUM(Q10:Q29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="46">
-        <f>SUM(L31,'Form V3'!L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46">
-        <f>SUM(M31,'Form V3'!M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="46">
-        <f>SUM(P31,'Form V3'!P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46">
-        <f>SUM(Q31,'Form V3'!Q32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="75"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="51"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="51"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="136"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4360,51 +3337,11 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:I8"/>
@@ -4416,25 +3353,1086 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="36" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35:Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="0.7265625" style="49" customWidth="1"/>
+    <col min="2" max="10" width="5.7265625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="5" style="49" customWidth="1"/>
+    <col min="14" max="17" width="5.7265625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="49" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" style="49" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="49" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="100"/>
+    </row>
+    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="104"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="110"/>
+      <c r="C9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="116"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="37"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
+        <f>L11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>L13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
+        <f>L15*M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21">
+        <f>L17*M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21">
+        <f>L19*M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21">
+        <f>L21*M21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21">
+        <f>L23*M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21">
+        <f>L25*M25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21">
+        <f>L27*M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
+        <f>L29*M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="46">
+        <f>SUM(L10:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f>SUM(M10:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="46">
+        <f>SUM(P10:P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <f>SUM(Q10:Q29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="46">
+        <f>SUM(L31,'Form V3'!L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f>SUM(M31,'Form V3'!M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="46">
+        <f>SUM(P31,'Form V3'!P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <f>SUM(Q31,'Form V3'!Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="105"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="136"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="96"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="136"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="130"/>
+      <c r="D37" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="133"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="136"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4635,15 +4633,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4668,18 +4678,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1369,11 +1369,245 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1390,245 +1624,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="22" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,7 +1671,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1721,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1800,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1849,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA054F94-1974-480C-A83F-330399C4E0C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1899,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC15E32-2A53-479E-A7A6-927D1FC2D9AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1978,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F4443E-D90B-49F9-9299-293A73D6C139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,43 +2426,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="97" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="3"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
@@ -2474,27 +2477,27 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2504,17 +2507,17 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
@@ -2525,10 +2528,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2559,24 +2562,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2586,32 +2589,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83" t="s">
+      <c r="M8" s="114"/>
+      <c r="N8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85" t="s">
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2623,18 +2626,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="80"/>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="86"/>
+      <c r="Q9" s="117"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -2666,18 +2669,18 @@
       <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="28"/>
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
@@ -2694,19 +2697,19 @@
     </row>
     <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="37"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="129"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="38"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="21">
         <f>L11*M11</f>
@@ -2721,22 +2724,22 @@
       <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="17"/>
       <c r="T12" s="26"/>
@@ -2749,19 +2752,19 @@
     </row>
     <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="117"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="132"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21">
         <f>L13*M13</f>
@@ -2776,40 +2779,40 @@
       <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="103"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="132"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="21">
         <f>L15*M15</f>
@@ -2817,40 +2820,40 @@
       </c>
     </row>
     <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="103"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="132"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="21">
         <f>L17*M17</f>
@@ -2858,40 +2861,40 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="103"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="132"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="21">
         <f>L19*M19</f>
@@ -2899,40 +2902,40 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="103"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="132"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="21">
         <f>L21*M21</f>
@@ -2940,40 +2943,40 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="103"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="132"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21">
         <f>L23*M23</f>
@@ -2981,40 +2984,40 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="103"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="19"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="132"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="21">
         <f>L25*M25</f>
@@ -3022,40 +3025,40 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="103"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="132"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="21">
         <f>L27*M27</f>
@@ -3063,40 +3066,40 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="103"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="132"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="51"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="21">
         <f>L29*M29</f>
@@ -3104,38 +3107,38 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -3144,18 +3147,18 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
       <c r="L32" s="46">
         <f>SUM(L11:L30)</f>
         <v>0</v>
@@ -3194,1127 +3197,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74" t="s">
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74" t="s">
+      <c r="O34" s="90"/>
+      <c r="P34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="75"/>
+      <c r="Q34" s="106"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66" t="s">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="51"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="83"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66" t="s">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="51"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="131"/>
+      <c r="D37" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="36" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:O30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="0.7265625" style="49" customWidth="1"/>
-    <col min="2" max="10" width="5.7265625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="49" customWidth="1"/>
-    <col min="13" max="13" width="5" style="49" customWidth="1"/>
-    <col min="14" max="17" width="5.7265625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="0.7265625" style="49" customWidth="1"/>
-    <col min="19" max="20" width="4.7265625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" style="49" customWidth="1"/>
-    <col min="22" max="22" width="16.81640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="4.7265625" style="49" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
-    </row>
-    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-    </row>
-    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="80"/>
-      <c r="C9" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="86"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="37"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21">
-        <f>L11*M11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21">
-        <f>L13*M13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21">
-        <f>L15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21">
-        <f>L17*M17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21">
-        <f>L19*M19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21">
-        <f>L21*M21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21">
-        <f>L23*M23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21">
-        <f>L25*M25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21">
-        <f>L27*M27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21">
-        <f>L29*M29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="46">
-        <f>SUM(L10:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="46">
-        <f>SUM(M10:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="46">
-        <f>SUM(P10:P29)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46">
-        <f>SUM(Q10:Q29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="46">
-        <f>SUM(L31,'Form V3'!L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46">
-        <f>SUM(M31,'Form V3'!M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="46">
-        <f>SUM(P31,'Form V3'!P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46">
-        <f>SUM(Q31,'Form V3'!Q32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="75"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="51"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="51"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4360,51 +3340,11 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:I8"/>
@@ -4416,25 +3356,1086 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="E1:M1"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="36" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35:Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="0.7265625" style="49" customWidth="1"/>
+    <col min="2" max="10" width="5.7265625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="5" style="49" customWidth="1"/>
+    <col min="14" max="17" width="5.7265625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="49" customWidth="1"/>
+    <col min="19" max="20" width="4.7265625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" style="49" customWidth="1"/>
+    <col min="22" max="22" width="16.81640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="49" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
+    </row>
+    <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="111"/>
+      <c r="C9" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="117"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="2:26" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="37"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
+        <f>L11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="2:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>L13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
+        <f>L15*M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21">
+        <f>L17*M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21">
+        <f>L19*M19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21">
+        <f>L21*M21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21">
+        <f>L23*M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21">
+        <f>L25*M25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21">
+        <f>L27*M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
+        <f>L29*M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="46">
+        <f>SUM(L10:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
+        <f>SUM(M10:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="46">
+        <f>SUM(P10:P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="46">
+        <f>SUM(Q10:Q29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="46">
+        <f>SUM(L31,'Form V3'!L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f>SUM(M31,'Form V3'!M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="46">
+        <f>SUM(P31,'Form V3'!P32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <f>SUM(Q31,'Form V3'!Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="106"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="137"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="137"/>
+    </row>
+    <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="131"/>
+      <c r="D37" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="134"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="137"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4635,15 +4636,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4668,18 +4681,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form V3" sheetId="3" r:id="rId1"/>
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1466,6 +1466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2402,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2423,32 +2426,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="127" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="56" t="s">
         <v>2</v>
       </c>
@@ -2474,9 +2477,9 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
@@ -2491,10 +2494,10 @@
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -2504,9 +2507,9 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
@@ -2525,10 +2528,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -2559,24 +2562,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -2586,32 +2589,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113" t="s">
+      <c r="M8" s="114"/>
+      <c r="N8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="115" t="s">
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -2623,18 +2626,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="110"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="43" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="116"/>
+      <c r="Q9" s="117"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -3116,8 +3119,8 @@
       <c r="I30" s="76"/>
       <c r="J30" s="76"/>
       <c r="K30" s="76"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
       <c r="N30" s="55"/>
       <c r="O30" s="55"/>
       <c r="P30" s="40"/>
@@ -3127,15 +3130,15 @@
       <c r="B31" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
       <c r="N31" s="13"/>
@@ -3144,18 +3147,18 @@
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
       <c r="L32" s="46">
         <f>SUM(L11:L30)</f>
         <v>0</v>
@@ -3194,104 +3197,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89" t="s">
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89" t="s">
+      <c r="O34" s="90"/>
+      <c r="P34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="105"/>
+      <c r="Q34" s="106"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="95" t="s">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
       <c r="N35" s="81"/>
       <c r="O35" s="81"/>
       <c r="P35" s="82"/>
-      <c r="Q35" s="136"/>
+      <c r="Q35" s="83"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="95" t="s">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="96"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="135"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="136"/>
       <c r="N36" s="81"/>
       <c r="O36" s="81"/>
       <c r="P36" s="82"/>
-      <c r="Q36" s="136"/>
+      <c r="Q36" s="83"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="131" t="s">
+      <c r="C37" s="131"/>
+      <c r="D37" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="132" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="133"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="135"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="136"/>
       <c r="N37" s="81"/>
       <c r="O37" s="81"/>
       <c r="P37" s="82"/>
-      <c r="Q37" s="136"/>
+      <c r="Q37" s="83"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3413,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="P35" sqref="P35:Q37"/>
     </sheetView>
   </sheetViews>
@@ -3434,32 +3437,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="127" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="2:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="56" t="s">
         <v>2</v>
       </c>
@@ -3485,9 +3488,9 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
@@ -3502,10 +3505,10 @@
       <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="41"/>
@@ -3515,9 +3518,9 @@
       <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
@@ -3536,10 +3539,10 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="41"/>
@@ -3570,24 +3573,24 @@
       <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="41"/>
@@ -3597,32 +3600,32 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113" t="s">
+      <c r="M8" s="114"/>
+      <c r="N8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="115" t="s">
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="26"/>
@@ -3634,18 +3637,18 @@
       <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="110"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="48" t="s">
         <v>29</v>
       </c>
@@ -3667,7 +3670,7 @@
       <c r="P9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="116"/>
+      <c r="Q9" s="117"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
@@ -4127,8 +4130,8 @@
       <c r="I30" s="76"/>
       <c r="J30" s="76"/>
       <c r="K30" s="76"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
       <c r="N30" s="55"/>
       <c r="O30" s="55"/>
       <c r="P30" s="40"/>
@@ -4138,15 +4141,15 @@
       <c r="B31" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="46">
         <f>SUM(L10:L29)</f>
         <v>0</v>
@@ -4167,18 +4170,18 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
       <c r="L32" s="46">
         <f>SUM(L31,'Form V3'!L32)</f>
         <v>0</v>
@@ -4217,104 +4220,104 @@
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89" t="s">
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89" t="s">
+      <c r="K34" s="90"/>
+      <c r="L34" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89" t="s">
+      <c r="O34" s="90"/>
+      <c r="P34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="105"/>
+      <c r="Q34" s="106"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="95" t="s">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
       <c r="N35" s="81"/>
       <c r="O35" s="81"/>
       <c r="P35" s="82"/>
-      <c r="Q35" s="136"/>
+      <c r="Q35" s="137"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="95" t="s">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="96"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="135"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="136"/>
       <c r="N36" s="81"/>
       <c r="O36" s="81"/>
       <c r="P36" s="82"/>
-      <c r="Q36" s="136"/>
+      <c r="Q36" s="137"/>
     </row>
     <row r="37" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="131" t="s">
+      <c r="C37" s="131"/>
+      <c r="D37" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="132" t="s">
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="133"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="135"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="136"/>
       <c r="N37" s="81"/>
       <c r="O37" s="81"/>
       <c r="P37" s="82"/>
-      <c r="Q37" s="136"/>
+      <c r="Q37" s="137"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
